--- a/Menu Data Dosen.xlsx
+++ b/Menu Data Dosen.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
-  <si>
-    <t>Laporan Data Dosen</t>
-  </si>
-  <si>
-    <t>NO.</t>
-  </si>
-  <si>
-    <t>Nama</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="307">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nama Dosen</t>
   </si>
   <si>
     <t>NIP</t>
@@ -32,7 +29,7 @@
     <t>Jabatan Struktural</t>
   </si>
   <si>
-    <t>Pangkat/Golongan</t>
+    <t>Pangkat/Gol.</t>
   </si>
   <si>
     <t>Jabatan Fungsional</t>
@@ -41,7 +38,7 @@
     <t>tmt.</t>
   </si>
   <si>
-    <t>No. telp</t>
+    <t>Telp./HP</t>
   </si>
   <si>
     <t>NIDN/NIDK</t>
@@ -56,10 +53,889 @@
     <t>Ket.</t>
   </si>
   <si>
-    <t>Jhon Doe</t>
-  </si>
-  <si>
-    <t>none</t>
+    <t>Mauldy Laya, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>Ketua Jurusan</t>
+  </si>
+  <si>
+    <t>Penata Tk.1 / IIId</t>
+  </si>
+  <si>
+    <t>Lektor</t>
+  </si>
+  <si>
+    <t>08978882742</t>
+  </si>
+  <si>
+    <t>0311027801</t>
+  </si>
+  <si>
+    <t>D4 TI</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Eriya, S.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>Sekjur</t>
+  </si>
+  <si>
+    <t>081366241202</t>
+  </si>
+  <si>
+    <t>0003027801</t>
+  </si>
+  <si>
+    <t>D4 TMD</t>
+  </si>
+  <si>
+    <t>Pindahan dari Jambi</t>
+  </si>
+  <si>
+    <t>Risna Sari, S.Kom., M.Ti.</t>
+  </si>
+  <si>
+    <t>KPS D4 TI</t>
+  </si>
+  <si>
+    <t>Penata Muda Tk.1 / IIIb</t>
+  </si>
+  <si>
+    <t>Asisten Ahli</t>
+  </si>
+  <si>
+    <t>08561406772</t>
+  </si>
+  <si>
+    <t>0027028506</t>
+  </si>
+  <si>
+    <t>Defiana  Arnaldy, S.Tp., M.Si.</t>
+  </si>
+  <si>
+    <t>KPS D4 TMJ</t>
+  </si>
+  <si>
+    <t>Penata  / IIIc</t>
+  </si>
+  <si>
+    <t>081802964763</t>
+  </si>
+  <si>
+    <t>D4 TMJ</t>
+  </si>
+  <si>
+    <t>Iwan Sonjaya, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>KPS D4 TMD</t>
+  </si>
+  <si>
+    <t>0816 95 68 29</t>
+  </si>
+  <si>
+    <t>0330057601</t>
+  </si>
+  <si>
+    <t>Ayu Rosyida Zain, S.ST, M.T</t>
+  </si>
+  <si>
+    <t>KPS D1 TKJ</t>
+  </si>
+  <si>
+    <t>081394667473</t>
+  </si>
+  <si>
+    <t>0011108902</t>
+  </si>
+  <si>
+    <t>Hata Maulana, S.Si., M.Ti.</t>
+  </si>
+  <si>
+    <t>Ka. Lab. Komputer</t>
+  </si>
+  <si>
+    <t>085695451024</t>
+  </si>
+  <si>
+    <t>0323108402</t>
+  </si>
+  <si>
+    <t>Drs. Abdul Aziz, M.MSI.</t>
+  </si>
+  <si>
+    <t>Dosen  PNS</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>081315890090</t>
+  </si>
+  <si>
+    <t>0023095601</t>
+  </si>
+  <si>
+    <t>D1 TKJ</t>
+  </si>
+  <si>
+    <t>Studi Lanjut S3 di UTeM</t>
+  </si>
+  <si>
+    <t>Yoyok Sabar Waluyo, S.S., M.Hum.</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>081399835806</t>
+  </si>
+  <si>
+    <t>0006117002</t>
+  </si>
+  <si>
+    <t>Studi Lanjut S3 di UNS</t>
+  </si>
+  <si>
+    <t>Nur Fauzi Soelaiman, S.T., M.Kom</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>0817791491</t>
+  </si>
+  <si>
+    <t>0020095806</t>
+  </si>
+  <si>
+    <t>Indri Neforawati, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>081280703038</t>
+  </si>
+  <si>
+    <t>0013116308</t>
+  </si>
+  <si>
+    <t>Drs. Refirman, M.Kom.</t>
+  </si>
+  <si>
+    <t>0895392867016</t>
+  </si>
+  <si>
+    <t>0010085704</t>
+  </si>
+  <si>
+    <t>Drs. Agus Setiawan, M.Kom.</t>
+  </si>
+  <si>
+    <t>Pembina  / IVa</t>
+  </si>
+  <si>
+    <t>Lektor Kepala</t>
+  </si>
+  <si>
+    <t>08129433815</t>
+  </si>
+  <si>
+    <t>0017085806</t>
+  </si>
+  <si>
+    <t>Dr. Dewi Yanti Liliana, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081218769796</t>
+  </si>
+  <si>
+    <t>0016118101</t>
+  </si>
+  <si>
+    <t>LULUS S3  UI 2019</t>
+  </si>
+  <si>
+    <t>Anita Hidayati, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081554257259</t>
+  </si>
+  <si>
+    <t>0003087902</t>
+  </si>
+  <si>
+    <t>Studi Lanjut S3 di UI</t>
+  </si>
+  <si>
+    <t>Prihatin Oktivasari, S.Si., M.Si</t>
+  </si>
+  <si>
+    <t>0887884077101</t>
+  </si>
+  <si>
+    <t>0006107904</t>
+  </si>
+  <si>
+    <t>Studi Lanjut S3 di ITB</t>
+  </si>
+  <si>
+    <t>Mera Kartika D, S.Si., M.T., Ph.D</t>
+  </si>
+  <si>
+    <t>08122144084</t>
+  </si>
+  <si>
+    <t>0028047901</t>
+  </si>
+  <si>
+    <t>LULUS S3  tahun 2020</t>
+  </si>
+  <si>
+    <t>Maria Agustin, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081367510026</t>
+  </si>
+  <si>
+    <t>0015097510</t>
+  </si>
+  <si>
+    <t>Pindahan Polsri</t>
+  </si>
+  <si>
+    <t>Iklima Ermis Ismail, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081287393851</t>
+  </si>
+  <si>
+    <t>0312079904</t>
+  </si>
+  <si>
+    <t>Ariawan Andi Suhandana, S,Kom., M.Ti.</t>
+  </si>
+  <si>
+    <t>081410019556</t>
+  </si>
+  <si>
+    <t>0029018505</t>
+  </si>
+  <si>
+    <t>Pindahan DIKTI</t>
+  </si>
+  <si>
+    <t>Asep Taufik Muharram, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081514377249</t>
+  </si>
+  <si>
+    <t>0428108408</t>
+  </si>
+  <si>
+    <t>Anggi Mardiyono, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>01/05/2020</t>
+  </si>
+  <si>
+    <t>085227622664</t>
+  </si>
+  <si>
+    <t>0407068601</t>
+  </si>
+  <si>
+    <t>Rizki Elisa Nalawati, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>081222546786</t>
+  </si>
+  <si>
+    <t>0030019204</t>
+  </si>
+  <si>
+    <t>Malisa Huzaifa, S.Kom., M.T.</t>
+  </si>
+  <si>
+    <t>085370833573</t>
+  </si>
+  <si>
+    <t>0004109102</t>
+  </si>
+  <si>
+    <t>Noorlela Marcheta, S,Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>087873757293</t>
+  </si>
+  <si>
+    <t>0002039301</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf Bagus Rasyiidin, S.Kom., M.TI.</t>
+  </si>
+  <si>
+    <t>081211181989</t>
+  </si>
+  <si>
+    <t>0004089301</t>
+  </si>
+  <si>
+    <t>Asep Kurniawan, S.Pd., M.Kom.</t>
+  </si>
+  <si>
+    <t>082385155431</t>
+  </si>
+  <si>
+    <t>0026099103</t>
+  </si>
+  <si>
+    <t>Indra Hermawan, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>085217987034</t>
+  </si>
+  <si>
+    <t>0413038701</t>
+  </si>
+  <si>
+    <t>Ade Rahma Yuly, S.Kom., M.Ds.</t>
+  </si>
+  <si>
+    <t>Dosen  CPNS</t>
+  </si>
+  <si>
+    <t>085263971990</t>
+  </si>
+  <si>
+    <t>0025079003</t>
+  </si>
+  <si>
+    <t>Bambang Warsuta, S.Kom., M.T.I.</t>
+  </si>
+  <si>
+    <t>081299441447</t>
+  </si>
+  <si>
+    <t>0029118402</t>
+  </si>
+  <si>
+    <t>Euis Oktavianti, S.Si., M.Ti.</t>
+  </si>
+  <si>
+    <t>23072014090119801027</t>
+  </si>
+  <si>
+    <t>Dosen  Tetap Non PNS</t>
+  </si>
+  <si>
+    <t>Setara 3B</t>
+  </si>
+  <si>
+    <t>087897756868</t>
+  </si>
+  <si>
+    <t>0027108010</t>
+  </si>
+  <si>
+    <t>Afifah Muharikah, S.S., M. Hum.</t>
+  </si>
+  <si>
+    <t>23232015030219870908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosen  Tetap Non PNS </t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>08158501813</t>
+  </si>
+  <si>
+    <t>0008098701</t>
+  </si>
+  <si>
+    <t>Dr. Muhammad Yusuf, S.Ag., M.A.</t>
+  </si>
+  <si>
+    <t>23252015100119690204</t>
+  </si>
+  <si>
+    <t>Setara 3C</t>
+  </si>
+  <si>
+    <t>081905086977</t>
+  </si>
+  <si>
+    <t>0004026905</t>
+  </si>
+  <si>
+    <t>Proses</t>
+  </si>
+  <si>
+    <t>Syamsi Dwi Cahya, S.ST., M.Kom.</t>
+  </si>
+  <si>
+    <t>59152016040119890406</t>
+  </si>
+  <si>
+    <t>089613614003</t>
+  </si>
+  <si>
+    <t>0006048903</t>
+  </si>
+  <si>
+    <t>Fitria Nugrahani, S.Pd., M.Si.</t>
+  </si>
+  <si>
+    <t>48302016040119890510</t>
+  </si>
+  <si>
+    <t>08993606397</t>
+  </si>
+  <si>
+    <t>0010058903</t>
+  </si>
+  <si>
+    <t>Ayres Pradiptyas, S.ST., M.M.</t>
+  </si>
+  <si>
+    <t>59142016040119870912</t>
+  </si>
+  <si>
+    <t>081281836410</t>
+  </si>
+  <si>
+    <t>0012098705</t>
+  </si>
+  <si>
+    <t>Dewi Kurniawati, S.S., M.Pd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5932017020119850430 </t>
+  </si>
+  <si>
+    <t>082137161310</t>
+  </si>
+  <si>
+    <t>0030048501</t>
+  </si>
+  <si>
+    <t>Fachroni Arbi Murad, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>08986480122</t>
+  </si>
+  <si>
+    <t>0013058401</t>
+  </si>
+  <si>
+    <t>Muhammad Abdul Hadi, S.Si., M.T.I.</t>
+  </si>
+  <si>
+    <t>Dosen Part Timer</t>
+  </si>
+  <si>
+    <t>08989389706</t>
+  </si>
+  <si>
+    <t>0306017904</t>
+  </si>
+  <si>
+    <t>STTJ</t>
+  </si>
+  <si>
+    <t>Irawati, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>089636446373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahbubul Wathoni, S.Si., M.Kom. </t>
+  </si>
+  <si>
+    <t>08561611408</t>
+  </si>
+  <si>
+    <t>UIN Jakarta</t>
+  </si>
+  <si>
+    <t>Herlino Nanang, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>082298623532</t>
+  </si>
+  <si>
+    <t>Taufik Muhammad Guntur, S.E., M.M.</t>
+  </si>
+  <si>
+    <t>081210177358</t>
+  </si>
+  <si>
+    <t>0305068301</t>
+  </si>
+  <si>
+    <t>Akademi Pariwisata Pertiwi</t>
+  </si>
+  <si>
+    <t>Toni Haryanto</t>
+  </si>
+  <si>
+    <t>081280407285</t>
+  </si>
+  <si>
+    <t>TGP</t>
+  </si>
+  <si>
+    <t>Weldy Rahman Nazmi, S.T., M.TI</t>
+  </si>
+  <si>
+    <t>082113310090</t>
+  </si>
+  <si>
+    <t>Indah Sari Mukarramah, B.Ict., S.Tr., M.TI.</t>
+  </si>
+  <si>
+    <t>085718145181</t>
+  </si>
+  <si>
+    <t>Chandra Wirawan, S.Kom.</t>
+  </si>
+  <si>
+    <t>Dosen AN</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf Khadafi, S.Kom., M.TI</t>
+  </si>
+  <si>
+    <t>08114714793</t>
+  </si>
+  <si>
+    <t>I Nyoman Sujana Saputra, S.T., M.T.I.</t>
+  </si>
+  <si>
+    <t>081310102183</t>
+  </si>
+  <si>
+    <t>Yana Suryana , S.Pd., M.M.</t>
+  </si>
+  <si>
+    <t>Dr. Yohan Suryanto, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>16292016032819740206</t>
+  </si>
+  <si>
+    <t>0811893708</t>
+  </si>
+  <si>
+    <t>Homebase pindah ke UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeni Nurhasanah, S.Pd., M.T. </t>
+  </si>
+  <si>
+    <t>081283633818</t>
+  </si>
+  <si>
+    <t>Faizul Mubarok, S.S.i, M.M.</t>
+  </si>
+  <si>
+    <t>085692117726</t>
+  </si>
+  <si>
+    <t>Pedro Iriano, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>08999002566</t>
+  </si>
+  <si>
+    <t>STMIK IKMI Cirebon</t>
+  </si>
+  <si>
+    <t>Novita Angra, S.Pd., M.Hum.</t>
+  </si>
+  <si>
+    <t>082139728434</t>
+  </si>
+  <si>
+    <t>Dian Rosdiana, S.ST., M.Kom.</t>
+  </si>
+  <si>
+    <t>082118595951</t>
+  </si>
+  <si>
+    <t>0405127604</t>
+  </si>
+  <si>
+    <t>Politeknik TEDC</t>
+  </si>
+  <si>
+    <t>Minto Rahayu, S.S., M.Si.</t>
+  </si>
+  <si>
+    <t>Dosen  PNS T. Mesin</t>
+  </si>
+  <si>
+    <t>4B</t>
+  </si>
+  <si>
+    <t>08561313551</t>
+  </si>
+  <si>
+    <t>0019075804</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Hamid Tharhan, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>08129580366</t>
+  </si>
+  <si>
+    <t>Fidriyanti, M.M.</t>
+  </si>
+  <si>
+    <t>081317900539</t>
+  </si>
+  <si>
+    <t>CCIT</t>
+  </si>
+  <si>
+    <t>Shynde Limar Kinanti, S.Si, M.Si.</t>
+  </si>
+  <si>
+    <t>081212976740</t>
+  </si>
+  <si>
+    <t>Andriyanti Dwi Kartikawati, S.T, M.T.</t>
+  </si>
+  <si>
+    <t>081298889945</t>
+  </si>
+  <si>
+    <t>Wibby Aldryani Astuti Praditasari, S.S.T, M.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>39572017050219901227</t>
+  </si>
+  <si>
+    <t>Dosen Non PNS TE</t>
+  </si>
+  <si>
+    <t>0327129002</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Ikhwanul Kholis, S.T, M.T.</t>
+  </si>
+  <si>
+    <t>08568131842</t>
+  </si>
+  <si>
+    <t>0327059002</t>
+  </si>
+  <si>
+    <t>M. Octaviano Pratama, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>081286116407</t>
+  </si>
+  <si>
+    <t>Dr. Eng. Muhammad Rahmat Widyanto, S.Kom., M.Eng.Sc.</t>
+  </si>
+  <si>
+    <t>0895611593797</t>
+  </si>
+  <si>
+    <t>Gunady Haryanto, S.T., M.T.</t>
+  </si>
+  <si>
+    <t>08128194497</t>
+  </si>
+  <si>
+    <t>Andriyanto, S.E., M.Kom</t>
+  </si>
+  <si>
+    <t>23272015100119730629</t>
+  </si>
+  <si>
+    <t>Dosen Non PNS TGP</t>
+  </si>
+  <si>
+    <t>Ady Arman, S.Pd., M.Kom.I</t>
+  </si>
+  <si>
+    <t>Dosen PNS Akuntansi</t>
+  </si>
+  <si>
+    <t>IIIB</t>
+  </si>
+  <si>
+    <t>085772106290</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Linda Sari Wulandari, S.Hum., M.Hum.</t>
+  </si>
+  <si>
+    <t>Dosen PNS T. Sipil</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Asep Yana Yusyama, S.Pd., M.Pd.</t>
+  </si>
+  <si>
+    <t>087771096611</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat, S.T MT</t>
+  </si>
+  <si>
+    <t>Dosen Part Timer TE</t>
+  </si>
+  <si>
+    <t>081316501917</t>
+  </si>
+  <si>
+    <t>Mochamad Soleh</t>
+  </si>
+  <si>
+    <t>Staf Adm. JTIK</t>
+  </si>
+  <si>
+    <t>IIIC</t>
+  </si>
+  <si>
+    <t>085920552722</t>
+  </si>
+  <si>
+    <t>Arsiparis Penyelia, IIIc (tmt.01/04/2018)</t>
+  </si>
+  <si>
+    <t>Olivia Emilda Mamahit, S.E.</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>081315201459</t>
+  </si>
+  <si>
+    <t>Pegawai Kontrak</t>
+  </si>
+  <si>
+    <t>Suliman, S.Pd.</t>
+  </si>
+  <si>
+    <t>IIID</t>
+  </si>
+  <si>
+    <t>081280890225</t>
+  </si>
+  <si>
+    <t>Fungsional Umum,  IIId (tmt.01/04/2021)</t>
+  </si>
+  <si>
+    <t>Tedi Supartadi</t>
+  </si>
+  <si>
+    <t>081316151404</t>
+  </si>
+  <si>
+    <t>Fungsional Umum, IIIb</t>
+  </si>
+  <si>
+    <t>Rini Maharani, A.Md.</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>083873003413</t>
+  </si>
+  <si>
+    <t>Isro Machfudin, S.T., M.Kom.</t>
+  </si>
+  <si>
+    <t>Laboran JTIK</t>
+  </si>
+  <si>
+    <t>089661707772</t>
+  </si>
+  <si>
+    <t>PLP Ahli Muda, IIIc</t>
+  </si>
+  <si>
+    <t>Syafrizal Choir, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>IIIA</t>
+  </si>
+  <si>
+    <t>08128178404</t>
+  </si>
+  <si>
+    <t>Fungsional Umum, IIIa</t>
+  </si>
+  <si>
+    <t>Jamhari, S.Kom.</t>
+  </si>
+  <si>
+    <t>082111680074</t>
+  </si>
+  <si>
+    <t>Rangga Saputra</t>
+  </si>
+  <si>
+    <t>Helper JTIK</t>
+  </si>
+  <si>
+    <t>085716585714</t>
+  </si>
+  <si>
+    <t>Pratiwi Nur Fadillah, S.Pd.</t>
+  </si>
+  <si>
+    <t>Staf Adm. PBI-TIK</t>
+  </si>
+  <si>
+    <t>085811203059</t>
+  </si>
+  <si>
+    <t>Prastiyo</t>
+  </si>
+  <si>
+    <t>087882520574</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>Shinta Oktaviana R, S.Kom., M.Kom.</t>
+  </si>
+  <si>
+    <t>23062014090119801027</t>
+  </si>
+  <si>
+    <t>08128839520</t>
+  </si>
+  <si>
+    <t>0027108011</t>
+  </si>
+  <si>
+    <t>Keluar</t>
   </si>
 </sst>
 </file>
@@ -67,22 +943,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -131,19 +998,19 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -445,125 +1312,2714 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A5" sqref="A5:L5"/>
+      <selection activeCell="A90" sqref="A90:L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="64" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="49" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="31" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="28" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>197802112009121003</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>197802032005012002</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>198502272015042001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>198112012015041001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2001128101</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5">
+        <v>197605302008121002</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5">
+        <v>198910112018032002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5">
+        <v>198410232014041001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
+        <v>195609231987031002</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5">
+        <v>197011061998021001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="5">
+        <v>195809201984031001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5">
+        <v>196311131989032001</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="5">
+        <v>195708101986031005</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
-        <v>181911020</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5">
+        <v>195808171986121001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="B15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="5">
+        <v>198111162005012004</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="5">
+        <v>197908032003122003</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="5">
+        <v>197910062003122001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5">
+        <v>520000000000000343</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="5">
+        <v>197904282005012002</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5">
+        <v>197509152003122003</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>14</v>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="5">
+        <v>198807122018032001</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="5">
+        <v>198501292010121003</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="5">
+        <v>198410282019031005</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5">
+        <v>198606072019031011</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="5">
+        <v>199201302019032018</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="5">
+        <v>199110042019032024</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="5">
+        <v>199303022019032022</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="5">
+        <v>199308142019031015</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="5">
+        <v>199109262019031012</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="5">
+        <v>198703132019031012</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="5">
+        <v>199007252020122012</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="5">
+        <v>198411292020121002</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="5">
+        <v>9202017012019840513</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="5">
+        <v>520000000000000226</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="5">
+        <v>520000000000000228</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="5">
+        <v>520000000000000233</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9903004945</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="5">
+        <v>520000000000000275</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2009127301</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="5">
+        <v>520000000000000282</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="5">
+        <v>520000000000000024</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="5">
+        <v>520000000000000306</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="5">
+        <v>520000000000000302</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="5">
+        <v>520000000000000329</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="5">
+        <v>520000000000000303</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="5">
+        <v>520000000000000280</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="5">
+        <v>520000000000000356</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I55" s="1">
+        <v>8860600016</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="5">
+        <v>520000000000000232</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="5">
+        <v>520000000000000277</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I58" s="1">
+        <v>99201112711</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" s="5">
+        <v>520000000000000279</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59" s="1">
+        <v>9904011147</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="5">
+        <v>520000000000000278</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="5">
+        <v>520000000000000283</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="5">
+        <v>195807191987032001</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="5">
+        <v>520000000000000246</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="I63" s="1">
+        <v>9903000827</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" s="5">
+        <v>520000000000000304</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="5">
+        <v>520000000000000305</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="5">
+        <v>520000000000000301</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="5">
+        <v>520000000000000198</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" s="5">
+        <v>520000000000000339</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="5">
+        <v>520000000000000340</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="5">
+        <v>520000000000000338</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C73" s="5">
+        <v>19800408201504001</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C74" s="5">
+        <v>199207172019032036</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="5">
+        <v>199001112019031016</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="5">
+        <v>520000000000000207</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="5">
+        <v>196505081990031004</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" s="5">
+        <v>197507212007064030</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="5">
+        <v>196702011990031005</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="5">
+        <v>196801011990031005</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="5">
+        <v>199609292018013227</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="5">
+        <v>196810141990031001</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" s="5">
+        <v>197512162001121002</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="5">
+        <v>198601282014041001</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" s="5">
+        <v>198107012006103027</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C87" s="5">
+        <v>199208192017013149</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A2:L2"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
